--- a/storage/public/excel/BieuMau_TH10.xlsx
+++ b/storage/public/excel/BieuMau_TH10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\quanlylichtrinh.vn\storage\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A2CF0C-1DD6-46A2-8371-67858E8356FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938C9BA-8B69-417D-95D3-AFAF40D70D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,12 +419,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -559,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -591,12 +585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,11 +596,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -620,9 +605,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,6 +646,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,7 +1169,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1200,44 +1185,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
@@ -1245,46 +1230,46 @@
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="36" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="36" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="36" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
@@ -1292,166 +1277,166 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="35"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="19" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="19" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>4</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="19" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>5</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="19" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>6</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="19" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>7</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="19" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>8</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="19" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>9</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="19" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>10</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="19" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1467,11 +1452,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1480,14 +1465,15 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C1:E3"/>
@@ -1504,7 +1490,6 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/storage/public/excel/BieuMau_TH10.xlsx
+++ b/storage/public/excel/BieuMau_TH10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27723"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\quanlylichtrinh.vn\storage\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\web\quanlylichtrinh.vn\storage\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938C9BA-8B69-417D-95D3-AFAF40D70D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45210A-3D89-4E3A-AC4F-91BA7F7455B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mon thuc hanh" sheetId="7" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -596,59 +596,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,54 +1172,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1226,7 +1230,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1236,209 +1240,209 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="32" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="32" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>1</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="13"/>
       <c r="F11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="13"/>
       <c r="F12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>3</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="13"/>
       <c r="F13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>4</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="13"/>
       <c r="F14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>5</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="13"/>
       <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>6</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="13"/>
       <c r="F16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>7</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="13"/>
       <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>8</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="13"/>
       <c r="F18" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>9</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="13"/>
       <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>10</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="13"/>
       <c r="F20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,33 +1455,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="16" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="16" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E26" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C1:E3"/>
     <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="A9:A10"/>
@@ -1490,6 +1491,9 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C1:E3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/storage/public/excel/BieuMau_TH10.xlsx
+++ b/storage/public/excel/BieuMau_TH10.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\web\quanlylichtrinh.vn\storage\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\quanlylichtrinh\quanlylichtrinh\storage\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45210A-3D89-4E3A-AC4F-91BA7F7455B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED76D09-2774-4EE1-8685-8D066E4B52E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mon thuc hanh" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mon thuc hanh'!$A$1:$G$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mon thuc hanh'!$A:$G</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mon thuc hanh'!$9:$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Kiểm tra tình hình thực hiện lịch giảng dạy</t>
   </si>
@@ -63,9 +63,6 @@
     <t>GHI CHÚ</t>
   </si>
   <si>
-    <t>Khoa CNTT                                Cán bộ giảng dạy</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Số giờ giảng trực tuyến: </t>
     </r>
@@ -291,22 +288,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Cán bộ giảng dạy chính: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoa CNTT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t>Lê Hoàng An</t>
+  </si>
+  <si>
+    <t>Cán bộ giảng dạy</t>
   </si>
 </sst>
 </file>
@@ -438,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -549,20 +543,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -572,9 +572,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,13 +590,40 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,12 +651,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,18 +658,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,15 +837,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>485383</xdr:colOff>
+      <xdr:colOff>418147</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30350</xdr:rowOff>
+      <xdr:rowOff>41556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1265805</xdr:colOff>
+      <xdr:colOff>1098176</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>205036</xdr:rowOff>
+      <xdr:rowOff>216242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -863,8 +869,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="858446" y="30350"/>
-          <a:ext cx="780422" cy="650936"/>
+          <a:off x="787941" y="41556"/>
+          <a:ext cx="680029" cy="645333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,315 +1176,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="33" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="12"/>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12">
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="12">
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12">
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12">
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12">
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12">
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="12">
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>8</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12">
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="12">
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E22" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="24" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E26" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="17"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E26:F26"/>
+  <mergeCells count="19">
+    <mergeCell ref="C1:E3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="A9:A10"/>
@@ -1491,13 +1506,16 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E21:G21"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/storage/public/excel/BieuMau_TH10.xlsx
+++ b/storage/public/excel/BieuMau_TH10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27607"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\quanlylichtrinh\quanlylichtrinh\storage\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qllt.vlute.edu.vn\storage\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED76D09-2774-4EE1-8685-8D066E4B52E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43C400C-C7A8-480D-96B0-93598EB03AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mon thuc hanh" sheetId="7" r:id="rId1"/>
@@ -603,53 +603,51 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -837,15 +835,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>418147</xdr:colOff>
+      <xdr:colOff>967235</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>41556</xdr:rowOff>
+      <xdr:rowOff>30350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1098176</xdr:colOff>
+      <xdr:colOff>1647264</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>216242</xdr:rowOff>
+      <xdr:rowOff>205036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,7 +867,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="787941" y="41556"/>
+          <a:off x="1337029" y="30350"/>
           <a:ext cx="680029" cy="645333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1181,52 +1179,52 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="65.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1242,11 +1240,11 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="36" t="s">
         <v>12</v>
       </c>
@@ -1257,11 +1255,11 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="36" t="s">
         <v>11</v>
       </c>
@@ -1272,11 +1270,11 @@
         <v>17</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="36" t="s">
         <v>10</v>
       </c>
@@ -1288,22 +1286,22 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="32" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="34" t="s">
@@ -1311,12 +1309,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1456,11 +1454,11 @@
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D22" s="14" t="s">
@@ -1469,10 +1467,10 @@
       <c r="E22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1486,14 +1484,13 @@
         <v>25</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="23"/>
+      <c r="G26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C1:E3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="A9:A10"/>
@@ -1512,6 +1509,7 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C1:E3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
